--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117741.6349421187</v>
+        <v>131467.9930795369</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
         <v>80024.38370490453</v>
@@ -26347,7 +26349,7 @@
         <v>80024.38370490453</v>
       </c>
       <c r="N2" t="n">
-        <v>80024.38370490454</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="O2" t="n">
         <v>80024.38370490453</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26525,10 +26527,10 @@
         <v>-12126.11889371071</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="E6" t="n">
-        <v>-88541.94840190366</v>
+        <v>-88541.94840190372</v>
       </c>
       <c r="F6" t="n">
         <v>44558.05159809632</v>
@@ -26555,7 +26557,7 @@
         <v>44558.05159809632</v>
       </c>
       <c r="N6" t="n">
-        <v>44558.05159809634</v>
+        <v>44558.05159809632</v>
       </c>
       <c r="O6" t="n">
         <v>44558.05159809632</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131467.9930795369</v>
+        <v>6358.094282060183</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="C2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201247</v>
       </c>
       <c r="D2" t="n">
         <v>75255.18387201248</v>
@@ -26325,37 +26325,37 @@
         <v>80024.38370490453</v>
       </c>
       <c r="F2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="G2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="H2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="I2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="J2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="K2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="L2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="M2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="N2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="O2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="P2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.7928637455</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="E6" t="n">
-        <v>-88541.94840190372</v>
+        <v>-103351.9652410176</v>
       </c>
       <c r="F6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="G6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="H6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="I6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="J6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="K6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="L6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="M6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="N6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="O6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
       <c r="P6" t="n">
-        <v>44558.05159809632</v>
+        <v>29748.03475898243</v>
       </c>
     </row>
   </sheetData>
